--- a/output/tables/table_L50.xlsx
+++ b/output/tables/table_L50.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limaf\Desktop\Mestrado\Masters-dissertation\output\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Limaf\Desktop\Mestrado\Dissertation\output\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C607926-F631-4E87-8D78-FBEE439E8096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4727E236-1736-4BED-8AF4-40E25980AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EB162A8B-29DB-4314-A15C-74E1F26F70B0}"/>
   </bookViews>
@@ -774,10 +774,10 @@
   <dimension ref="B1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E52" sqref="B3:E52"/>
+      <selection activeCell="B3" sqref="B3:E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="5"/>
     <col min="2" max="2" width="25.109375" style="5" customWidth="1"/>
@@ -788,19 +788,19 @@
     <col min="7" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>52</v>
       </c>
@@ -815,7 +815,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -830,7 +830,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -845,7 +845,7 @@
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -860,7 +860,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -875,7 +875,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -890,7 +890,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
@@ -905,7 +905,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
@@ -920,7 +920,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
@@ -950,7 +950,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
@@ -965,7 +965,7 @@
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -980,7 +980,7 @@
       </c>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -995,7 +995,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1100,7 +1100,7 @@
       </c>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>32</v>
       </c>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1250,7 +1250,7 @@
       </c>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>66</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
@@ -1295,7 +1295,7 @@
       </c>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
         <v>67</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>51</v>
       </c>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
